--- a/1 Resources/Info.xlsx
+++ b/1 Resources/Info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>Type</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Stock Police Motobike</t>
+  </si>
+  <si>
+    <t>AU Undercover 2017 Honda Civic</t>
+  </si>
+  <si>
+    <t>AU VIC BMW530d HWP</t>
+  </si>
+  <si>
+    <t>AU NT ToyotaLCGX HWP</t>
+  </si>
+  <si>
+    <t>AU SA L20FA</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -231,10 +243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -248,7 +260,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -270,7 +282,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -303,7 +315,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -314,15 +326,16 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -331,7 +344,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -349,19 +365,15 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,30 +388,30 @@
     <filterColumn colId="7"/>
     <filterColumn colId="19"/>
   </autoFilter>
-  <sortState ref="B3:U24">
-    <sortCondition ref="B2:B24"/>
+  <sortState ref="B3:U38">
+    <sortCondition ref="B2:B38"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Cost" dataDxfId="2"/>
-    <tableColumn id="22" name="Cost Bal" dataDxfId="0"/>
-    <tableColumn id="23" name="Upk Bal" dataDxfId="1"/>
-    <tableColumn id="4" name="Visbility" dataDxfId="3"/>
-    <tableColumn id="5" name="Armour" dataDxfId="14"/>
-    <tableColumn id="19" name="Water Cap" dataDxfId="13"/>
+    <tableColumn id="3" name="Cost" dataDxfId="15"/>
+    <tableColumn id="22" name="Cost Bal" dataDxfId="14"/>
+    <tableColumn id="23" name="Upk Bal" dataDxfId="13"/>
+    <tableColumn id="4" name="Visbility" dataDxfId="12"/>
+    <tableColumn id="5" name="Armour" dataDxfId="11"/>
+    <tableColumn id="19" name="Water Cap" dataDxfId="10"/>
     <tableColumn id="6" name="Max Speed"/>
-    <tableColumn id="7" name="Acceleration" dataDxfId="8"/>
-    <tableColumn id="8" name="immobilizedBy" dataDxfId="6"/>
+    <tableColumn id="7" name="Acceleration" dataDxfId="9"/>
+    <tableColumn id="8" name="immobilizedBy" dataDxfId="8"/>
     <tableColumn id="9" name="Offroad Mod" dataDxfId="7"/>
-    <tableColumn id="10" name="Traffic Mod" dataDxfId="9"/>
-    <tableColumn id="11" name="T. Seats" dataDxfId="12"/>
-    <tableColumn id="12" name="P. Seats" dataDxfId="10"/>
-    <tableColumn id="13" name="Upkeep" dataDxfId="11"/>
-    <tableColumn id="14" name="Terrain" dataDxfId="15"/>
+    <tableColumn id="10" name="Traffic Mod" dataDxfId="6"/>
+    <tableColumn id="11" name="T. Seats" dataDxfId="5"/>
+    <tableColumn id="12" name="P. Seats" dataDxfId="4"/>
+    <tableColumn id="13" name="Upkeep" dataDxfId="3"/>
+    <tableColumn id="14" name="Terrain" dataDxfId="2"/>
     <tableColumn id="15" name="Chase Eff"/>
-    <tableColumn id="16" name="Search+" dataDxfId="4"/>
-    <tableColumn id="20" name="Other Bonuses" dataDxfId="5"/>
+    <tableColumn id="16" name="Search+" dataDxfId="1"/>
+    <tableColumn id="20" name="Other Bonuses" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,14 +705,14 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
@@ -708,8 +720,9 @@
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
@@ -717,7 +730,7 @@
     <col min="18" max="18" width="10.42578125" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
@@ -1721,6 +1734,12 @@
       <c r="U17" s="21"/>
     </row>
     <row r="18" spans="2:21">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="34" t="e">
         <f>(Table1[[#This Row],[Cost]]/(Table1[[#This Row],[Max Speed]]+(Table1[[#This Row],[Acceleration]]*4)+(Table1[[#This Row],[Offroad Mod]]*50)+(Table1[[#This Row],[T. Seats]]*10)+(Table1[[#This Row],[P. Seats]]*10)+(Table1[[#This Row],[Traffic Mod]]*50))/100)</f>
@@ -1745,6 +1764,12 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="2:21">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="34" t="e">
         <f>(Table1[[#This Row],[Cost]]/(Table1[[#This Row],[Max Speed]]+(Table1[[#This Row],[Acceleration]]*4)+(Table1[[#This Row],[Offroad Mod]]*50)+(Table1[[#This Row],[T. Seats]]*10)+(Table1[[#This Row],[P. Seats]]*10)+(Table1[[#This Row],[Traffic Mod]]*50))/100)</f>
@@ -1769,6 +1794,12 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="2:21">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="34" t="e">
         <f>(Table1[[#This Row],[Cost]]/(Table1[[#This Row],[Max Speed]]+(Table1[[#This Row],[Acceleration]]*4)+(Table1[[#This Row],[Offroad Mod]]*50)+(Table1[[#This Row],[T. Seats]]*10)+(Table1[[#This Row],[P. Seats]]*10)+(Table1[[#This Row],[Traffic Mod]]*50))/100)</f>
@@ -1793,6 +1824,12 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="2:21">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="34" t="e">
         <f>(Table1[[#This Row],[Cost]]/(Table1[[#This Row],[Max Speed]]+(Table1[[#This Row],[Acceleration]]*4)+(Table1[[#This Row],[Offroad Mod]]*50)+(Table1[[#This Row],[T. Seats]]*10)+(Table1[[#This Row],[P. Seats]]*10)+(Table1[[#This Row],[Traffic Mod]]*50))/100)</f>

--- a/1 Resources/Info.xlsx
+++ b/1 Resources/Info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Type</t>
   </si>
@@ -168,7 +168,13 @@
     <t>AU NT ToyotaLCGX HWP</t>
   </si>
   <si>
-    <t>AU SA L20FA</t>
+    <t>AU NSW FJR1300AE</t>
+  </si>
+  <si>
+    <t>AU SA Iveco SB50 Bus</t>
+  </si>
+  <si>
+    <t>AU NSW SO Ops Commander</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1825,7 +1831,7 @@
     </row>
     <row r="21" spans="2:21">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -1854,6 +1860,12 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="2:21">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="34" t="e">
         <f>(Table1[[#This Row],[Cost]]/(Table1[[#This Row],[Max Speed]]+(Table1[[#This Row],[Acceleration]]*4)+(Table1[[#This Row],[Offroad Mod]]*50)+(Table1[[#This Row],[T. Seats]]*10)+(Table1[[#This Row],[P. Seats]]*10)+(Table1[[#This Row],[Traffic Mod]]*50))/100)</f>
@@ -1878,6 +1890,12 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="2:21">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="34" t="e">
         <f>(Table1[[#This Row],[Cost]]/(Table1[[#This Row],[Max Speed]]+(Table1[[#This Row],[Acceleration]]*4)+(Table1[[#This Row],[Offroad Mod]]*50)+(Table1[[#This Row],[T. Seats]]*10)+(Table1[[#This Row],[P. Seats]]*10)+(Table1[[#This Row],[Traffic Mod]]*50))/100)</f>
